--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Invalid_Login</t>
   </si>
@@ -73,7 +73,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -414,16 +413,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -559,14 +559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
